--- a/Mängelliste_Team2.1.xlsx
+++ b/Mängelliste_Team2.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\HAW\SE\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
   <si>
     <t>Gutachter</t>
   </si>
@@ -133,9 +133,6 @@
     <t>TÜV hier irreführend. Vielleicht ist Qualitätssicherung ein besserer Begriff</t>
   </si>
   <si>
-    <t>Definition Kudenservice ungenau. Service-Techniker wäre passender</t>
-  </si>
-  <si>
     <t>Produktdesigner: Interessensbeschreibung zu ungenau</t>
   </si>
   <si>
@@ -236,16 +233,102 @@
   </si>
   <si>
     <t>Pfad muss berechnet werden</t>
+  </si>
+  <si>
+    <t>Abarbeiter</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Der bleibt so.</t>
+  </si>
+  <si>
+    <t>Fernsteuerung heißt alles mögliche dezentral steuern. Warum nicht auch lenken…</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Losung</t>
+  </si>
+  <si>
+    <t>Cloud ins Glossar aufnehmen.</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Stimmt</t>
+  </si>
+  <si>
+    <t>Ein kunde ist kein Stakeholder?</t>
+  </si>
+  <si>
+    <t>Intern unterstreicht, dass wir unser eigenes Entwicklerteam meinen. Und nicht dass eines Zulieferers etc.</t>
+  </si>
+  <si>
+    <t>Klar hat der Dyson Kundendienst was mit dem Entwicklungsprozess zu tun! Der Supportet die Teile die wir im Roboter einbauen und hilft bei Fragen.</t>
+  </si>
+  <si>
+    <t>TÜV ist staatliche Qualitätssicherung!</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kudenservice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ungenau. Service-Techniker wäre passender</t>
+    </r>
+  </si>
+  <si>
+    <t>Kudenservice?         Warum ist Kundenservice schlechter als ein Servicetechniker</t>
+  </si>
+  <si>
+    <t>Verbesserung der Interessenbeschreibung</t>
+  </si>
+  <si>
+    <t>Karte muss vorhanden sein ja. Aber der Roboter soll auch auf freiem Feld einen Saugvorgang fortsetzen können</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,9 +362,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,25 +675,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="105.5703125" customWidth="1"/>
+    <col min="10" max="10" width="103.85546875" customWidth="1"/>
     <col min="11" max="11" width="80.7109375" customWidth="1"/>
     <col min="12" max="12" width="48.5703125" customWidth="1"/>
     <col min="13" max="13" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -620,8 +715,20 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -640,8 +747,18 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -660,8 +777,18 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -680,8 +807,16 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -700,8 +835,20 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -720,8 +867,16 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -740,8 +895,16 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -760,8 +923,18 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -780,8 +953,18 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -800,8 +983,18 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -820,8 +1013,18 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -832,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -840,8 +1043,18 @@
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -852,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -860,8 +1073,20 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -869,10 +1094,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -880,8 +1105,16 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -889,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -900,8 +1133,16 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -909,10 +1150,10 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -920,8 +1161,18 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -929,10 +1180,10 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -940,8 +1191,12 @@
       <c r="F18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -949,10 +1204,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -960,8 +1215,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -969,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -980,8 +1239,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -989,10 +1252,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1000,8 +1263,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1009,10 +1276,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1020,8 +1287,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1029,10 +1300,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1040,8 +1311,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1049,10 +1324,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1060,8 +1335,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1069,10 +1348,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1080,8 +1359,12 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1089,10 +1372,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1100,8 +1383,12 @@
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1109,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1120,8 +1407,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1129,10 +1420,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1140,8 +1431,12 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1149,10 +1444,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1160,8 +1455,12 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1169,10 +1468,10 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1180,8 +1479,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1189,10 +1492,10 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -1200,8 +1503,12 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1209,10 +1516,10 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -1220,8 +1527,12 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1229,10 +1540,10 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1240,8 +1551,12 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1249,10 +1564,10 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -1260,16 +1575,20 @@
       <c r="F34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1277,44 +1596,51 @@
       <c r="F35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
@@ -1369,7 +1695,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
@@ -1457,7 +1783,7 @@
       <selection activeCell="G5" sqref="G1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="80.140625" customWidth="1"/>

--- a/Mängelliste_Team2.1.xlsx
+++ b/Mängelliste_Team2.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\HAW\SE\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G\SE1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11715" windowHeight="7740"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="11718" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mängel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t>Gutachter</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Losung</t>
   </si>
   <si>
     <t>Cloud ins Glossar aufnehmen.</t>
@@ -313,11 +310,56 @@
   <si>
     <t>Karte muss vorhanden sein ja. Aber der Roboter soll auch auf freiem Feld einen Saugvorgang fortsetzen können</t>
   </si>
+  <si>
+    <t>Lösung</t>
+  </si>
+  <si>
+    <t>BCK</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Auf das Piepen wird verzichtet.</t>
+  </si>
+  <si>
+    <t>Wird in den Folien nicht erwähnt. Diese Alternativszenarien können bei jeder Fahrt auftrreten.</t>
+  </si>
+  <si>
+    <t>ignoriert</t>
+  </si>
+  <si>
+    <t>Aktive Verbform wird nun genutzt. "Der Roboter" ist nun der Akteur.</t>
+  </si>
+  <si>
+    <t>Auslösendes Ereignis erweitert</t>
+  </si>
+  <si>
+    <t>kartographieren entfernt</t>
+  </si>
+  <si>
+    <t>Raum und Räume?</t>
+  </si>
+  <si>
+    <t>Berechnung ist eine Implementierung und sollte nicht in das Requirement</t>
+  </si>
+  <si>
+    <t>Requirement wurde entfernt, Requirments wurden absichtlich nicht neu nummeriert.</t>
+  </si>
+  <si>
+    <t>Vorherige Erwarung ist nun Aktion und eine korrekte Erwartung wurde ergänzt.</t>
+  </si>
+  <si>
+    <t>Einträge welche sich gegenseitig nutzen wurden neu sortiert. Manche Einträge wurden überarbeitet.</t>
+  </si>
+  <si>
+    <t>Jeder Begriff wurde genutzt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,29 +716,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="105.5703125" customWidth="1"/>
-    <col min="10" max="10" width="103.85546875" customWidth="1"/>
-    <col min="11" max="11" width="80.7109375" customWidth="1"/>
-    <col min="12" max="12" width="48.5703125" customWidth="1"/>
-    <col min="13" max="13" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.15625" customWidth="1"/>
+    <col min="4" max="4" width="45.68359375" customWidth="1"/>
+    <col min="8" max="8" width="6.578125" customWidth="1"/>
+    <col min="9" max="9" width="105.578125" customWidth="1"/>
+    <col min="10" max="10" width="103.83984375" customWidth="1"/>
+    <col min="11" max="11" width="80.68359375" customWidth="1"/>
+    <col min="12" max="12" width="48.578125" customWidth="1"/>
+    <col min="13" max="13" width="46.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -725,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -758,7 +800,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -788,7 +830,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -816,7 +858,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -839,16 +881,16 @@
         <v>72</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -876,7 +918,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
@@ -904,7 +946,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
@@ -930,11 +972,11 @@
         <v>75</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -960,11 +1002,11 @@
         <v>71</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
@@ -990,11 +1032,11 @@
         <v>71</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1020,11 +1062,11 @@
         <v>71</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1035,7 +1077,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1050,11 +1092,11 @@
         <v>71</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1077,16 +1119,16 @@
         <v>72</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1114,7 +1156,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1142,7 +1184,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1168,11 +1210,11 @@
         <v>75</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1191,12 +1233,18 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1215,12 +1263,20 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1239,12 +1295,18 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1263,12 +1325,18 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1287,12 +1355,16 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1311,12 +1383,16 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1335,12 +1411,18 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1359,12 +1441,18 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="G25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1383,12 +1471,20 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1407,12 +1503,18 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1431,12 +1533,18 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1455,12 +1563,16 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1484,7 +1596,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1503,12 +1615,16 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1527,12 +1643,16 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1551,12 +1671,16 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1575,12 +1699,20 @@
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1596,84 +1728,90 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="1"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="1"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" s="1"/>
     </row>
   </sheetData>
@@ -1688,19 +1826,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1740,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1760,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1776,27 +1914,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="80.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.26171875" customWidth="1"/>
+    <col min="8" max="8" width="80.15625" customWidth="1"/>
+    <col min="9" max="9" width="34.15625" customWidth="1"/>
+    <col min="10" max="10" width="42.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1810,7 +1948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
